--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Inhbb-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H2">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I2">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J2">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N2">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P2">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q2">
-        <v>6.247698072122668</v>
+        <v>19.56907978274722</v>
       </c>
       <c r="R2">
-        <v>56.22928264910401</v>
+        <v>176.121718044725</v>
       </c>
       <c r="S2">
-        <v>0.03977300826421559</v>
+        <v>0.06973969305766077</v>
       </c>
       <c r="T2">
-        <v>0.03977300826421559</v>
+        <v>0.06973969305766077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H3">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I3">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J3">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N3">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P3">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q3">
-        <v>16.81050165237689</v>
+        <v>39.86290605201111</v>
       </c>
       <c r="R3">
-        <v>151.294514871392</v>
+        <v>358.7661544681</v>
       </c>
       <c r="S3">
-        <v>0.1070160903147543</v>
+        <v>0.1420622156645603</v>
       </c>
       <c r="T3">
-        <v>0.1070160903147543</v>
+        <v>0.1420622156645603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H4">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I4">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J4">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N4">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P4">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q4">
-        <v>11.32806803585511</v>
+        <v>27.60330972520277</v>
       </c>
       <c r="R4">
-        <v>101.952612322696</v>
+        <v>248.429787526825</v>
       </c>
       <c r="S4">
-        <v>0.07211477545914539</v>
+        <v>0.09837183807224145</v>
       </c>
       <c r="T4">
-        <v>0.07211477545914541</v>
+        <v>0.09837183807224147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5788186666666667</v>
+        <v>1.372558333333333</v>
       </c>
       <c r="H5">
-        <v>1.736456</v>
+        <v>4.117675</v>
       </c>
       <c r="I5">
-        <v>0.2386021475974085</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="J5">
-        <v>0.2386021475974086</v>
+        <v>0.3340102211301095</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N5">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O5">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P5">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q5">
-        <v>3.094281049172444</v>
+        <v>6.688556366716666</v>
       </c>
       <c r="R5">
-        <v>27.848529442552</v>
+        <v>60.19700730045</v>
       </c>
       <c r="S5">
-        <v>0.01969827355929324</v>
+        <v>0.02383647433564701</v>
       </c>
       <c r="T5">
-        <v>0.01969827355929325</v>
+        <v>0.02383647433564701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.159474</v>
       </c>
       <c r="I6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J6">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N6">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P6">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q6">
-        <v>0.5737809667240001</v>
+        <v>0.7578935756886668</v>
       </c>
       <c r="R6">
-        <v>5.164028700516001</v>
+        <v>6.821042181198001</v>
       </c>
       <c r="S6">
-        <v>0.003652704543004555</v>
+        <v>0.002700958140377129</v>
       </c>
       <c r="T6">
-        <v>0.003652704543004555</v>
+        <v>0.002700958140377129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.159474</v>
       </c>
       <c r="I7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J7">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N7">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P7">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q7">
         <v>1.543855957485333</v>
@@ -883,10 +883,10 @@
         <v>13.894703617368</v>
       </c>
       <c r="S7">
-        <v>0.009828227140137803</v>
+        <v>0.005501947040718388</v>
       </c>
       <c r="T7">
-        <v>0.009828227140137803</v>
+        <v>0.005501947040718388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.159474</v>
       </c>
       <c r="I8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J8">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N8">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P8">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q8">
-        <v>1.040355944492667</v>
+        <v>1.069052369387333</v>
       </c>
       <c r="R8">
-        <v>9.363203500434</v>
+        <v>9.621471324486</v>
       </c>
       <c r="S8">
-        <v>0.006622932974732302</v>
+        <v>0.003809856412837981</v>
       </c>
       <c r="T8">
-        <v>0.006622932974732302</v>
+        <v>0.003809856412837981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.159474</v>
       </c>
       <c r="I9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872722</v>
       </c>
       <c r="J9">
-        <v>0.02191293006327205</v>
+        <v>0.01293592767872721</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N9">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O9">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P9">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q9">
-        <v>0.2841749955286667</v>
+        <v>0.259042017164</v>
       </c>
       <c r="R9">
-        <v>2.557574959758</v>
+        <v>2.331378154476</v>
       </c>
       <c r="S9">
-        <v>0.00180906540539739</v>
+        <v>0.0009231660847937176</v>
       </c>
       <c r="T9">
-        <v>0.00180906540539739</v>
+        <v>0.0009231660847937177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H10">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J10">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.793878</v>
+        <v>14.25737566666667</v>
       </c>
       <c r="N10">
-        <v>32.38163400000001</v>
+        <v>42.772127</v>
       </c>
       <c r="O10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="P10">
-        <v>0.166691744666625</v>
+        <v>0.2087950866344732</v>
       </c>
       <c r="Q10">
-        <v>19.363105362566</v>
+        <v>38.261292942326</v>
       </c>
       <c r="R10">
-        <v>174.267948263094</v>
+        <v>344.351636480934</v>
       </c>
       <c r="S10">
-        <v>0.1232660318594048</v>
+        <v>0.1363544354364353</v>
       </c>
       <c r="T10">
-        <v>0.1232660318594048</v>
+        <v>0.1363544354364353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H11">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J11">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>29.04277733333333</v>
       </c>
       <c r="N11">
-        <v>87.12833199999999</v>
+        <v>87.128332</v>
       </c>
       <c r="O11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="P11">
-        <v>0.448512686882105</v>
+        <v>0.4253229592313036</v>
       </c>
       <c r="Q11">
-        <v>52.09975112993466</v>
+        <v>77.939603850616</v>
       </c>
       <c r="R11">
-        <v>468.8977601694119</v>
+        <v>701.4564346555439</v>
       </c>
       <c r="S11">
-        <v>0.331668369427213</v>
+        <v>0.2777587965260249</v>
       </c>
       <c r="T11">
-        <v>0.3316683694272129</v>
+        <v>0.277758796526025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H12">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J12">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.57101366666667</v>
+        <v>20.11084633333333</v>
       </c>
       <c r="N12">
-        <v>58.713041</v>
+        <v>60.332539</v>
       </c>
       <c r="O12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164121</v>
       </c>
       <c r="P12">
-        <v>0.3022385849637199</v>
+        <v>0.2945174484164122</v>
       </c>
       <c r="Q12">
-        <v>35.10838270359233</v>
+        <v>53.96974877198199</v>
       </c>
       <c r="R12">
-        <v>315.975444332331</v>
+        <v>485.727738947838</v>
       </c>
       <c r="S12">
-        <v>0.2235008765298422</v>
+        <v>0.1923357539313327</v>
       </c>
       <c r="T12">
-        <v>0.2235008765298422</v>
+        <v>0.1923357539313327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.793897</v>
+        <v>2.683614</v>
       </c>
       <c r="H13">
-        <v>5.381691</v>
+        <v>8.050841999999999</v>
       </c>
       <c r="I13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="J13">
-        <v>0.7394849223393194</v>
+        <v>0.6530538511911632</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.345855666666666</v>
+        <v>4.873057999999999</v>
       </c>
       <c r="N13">
-        <v>16.037567</v>
+        <v>14.619174</v>
       </c>
       <c r="O13">
-        <v>0.08255698348755007</v>
+        <v>0.07136450571781097</v>
       </c>
       <c r="P13">
-        <v>0.08255698348755008</v>
+        <v>0.07136450571781099</v>
       </c>
       <c r="Q13">
-        <v>9.589914442866332</v>
+        <v>13.077406671612</v>
       </c>
       <c r="R13">
-        <v>86.30922998579699</v>
+        <v>117.696660044508</v>
       </c>
       <c r="S13">
-        <v>0.06104964452285944</v>
+        <v>0.04660486529737024</v>
       </c>
       <c r="T13">
-        <v>0.06104964452285945</v>
+        <v>0.04660486529737025</v>
       </c>
     </row>
   </sheetData>
